--- a/src/test/resources/testData/excelfile.xlsx
+++ b/src/test/resources/testData/excelfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bashair\IdeaProjects\assaignment2Ramdan\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66215BB-FACF-4B94-8EAC-D7661CFAB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44976B-7718-4C6E-AF6A-9830DB050A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>tester@crossbrowsertesting.com</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>Rusia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Australi</t>
-  </si>
-  <si>
-    <t>India</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>n6</t>
+  </si>
+  <si>
+    <t>n7</t>
+  </si>
+  <si>
+    <t>n8</t>
+  </si>
+  <si>
+    <t>n9</t>
+  </si>
+  <si>
+    <t>n10</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +118,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,8 +166,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ارتباط تشعبي" xfId="1" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,123 +448,128 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>16377742</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>9569901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>9158960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9093507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>8460415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>7682300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>2973193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>